--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Btla-Cd79a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Btla-Cd79a.xlsx
@@ -528,16 +528,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.5747853333333334</v>
+        <v>0.310403</v>
       </c>
       <c r="H2">
-        <v>1.724356</v>
+        <v>0.9312090000000001</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.049923666666667</v>
+        <v>0.162337</v>
       </c>
       <c r="N2">
-        <v>3.149771</v>
+        <v>0.487011</v>
       </c>
       <c r="O2">
-        <v>0.5378779870835007</v>
+        <v>0.1525168947008936</v>
       </c>
       <c r="P2">
-        <v>0.5378779870835007</v>
+        <v>0.1525168947008936</v>
       </c>
       <c r="Q2">
-        <v>0.6034807247195556</v>
+        <v>0.050389891811</v>
       </c>
       <c r="R2">
-        <v>5.431326522476001</v>
+        <v>0.453509026299</v>
       </c>
       <c r="S2">
-        <v>0.5378779870835007</v>
+        <v>0.1525168947008936</v>
       </c>
       <c r="T2">
-        <v>0.5378779870835007</v>
+        <v>0.1525168947008936</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.5747853333333334</v>
+        <v>0.310403</v>
       </c>
       <c r="H3">
-        <v>1.724356</v>
+        <v>0.9312090000000001</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>2.130959</v>
       </c>
       <c r="O3">
-        <v>0.3638981810034663</v>
+        <v>0.6673509415904804</v>
       </c>
       <c r="P3">
-        <v>0.3638981810034663</v>
+        <v>0.6673509415904804</v>
       </c>
       <c r="Q3">
-        <v>0.4082813263782222</v>
+        <v>0.2204853554923333</v>
       </c>
       <c r="R3">
-        <v>3.674531937404</v>
+        <v>1.984368199431</v>
       </c>
       <c r="S3">
-        <v>0.3638981810034663</v>
+        <v>0.6673509415904804</v>
       </c>
       <c r="T3">
-        <v>0.3638981810034663</v>
+        <v>0.6673509415904804</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.5747853333333334</v>
+        <v>0.310403</v>
       </c>
       <c r="H4">
-        <v>1.724356</v>
+        <v>0.9312090000000001</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -682,22 +682,22 @@
         <v>0.575191</v>
       </c>
       <c r="O4">
-        <v>0.09822383191303298</v>
+        <v>0.180132163708626</v>
       </c>
       <c r="P4">
-        <v>0.09822383191303298</v>
+        <v>0.180132163708626</v>
       </c>
       <c r="Q4">
-        <v>0.1102037835551111</v>
+        <v>0.05951367065766668</v>
       </c>
       <c r="R4">
-        <v>0.9918340519960002</v>
+        <v>0.5356230359190001</v>
       </c>
       <c r="S4">
-        <v>0.09822383191303298</v>
+        <v>0.180132163708626</v>
       </c>
       <c r="T4">
-        <v>0.09822383191303298</v>
+        <v>0.180132163708626</v>
       </c>
     </row>
   </sheetData>
